--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,15 +58,15 @@
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -94,28 +94,31 @@
     <t>size</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
@@ -145,12 +148,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -160,13 +163,13 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
@@ -175,7 +178,10 @@
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
@@ -542,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -661,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>0.8615384615384616</v>
@@ -711,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.71875</v>
+        <v>0.703125</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>0.765625</v>
@@ -811,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6935483870967742</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.660377358490566</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6486486486486487</v>
+        <v>0.5878378378378378</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.5466284074605452</v>
+        <v>0.5538020086083214</v>
       </c>
       <c r="L8">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M8">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5882352941176471</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.5362318840579711</v>
+        <v>0.529045643153527</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5636363636363636</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.4896265560165975</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L10">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>246</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5631067961165048</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.4426229508196721</v>
+        <v>0.4401639344262295</v>
       </c>
       <c r="L11">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M11">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4898550724637681</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="C12">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D12">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.3792048929663608</v>
+        <v>0.3363914373088685</v>
       </c>
       <c r="L12">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4096385542168675</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>0.325</v>
@@ -1161,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4015748031496063</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.3174603174603174</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3789473684210526</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.3072289156626506</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3696682464454976</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.2027972027972028</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3671875</v>
+        <v>0.3359375</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1935483870967742</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3483146067415731</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1379,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.1507449605609115</v>
+        <v>0.1577563540753725</v>
       </c>
       <c r="L18">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M18">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,16 +1438,16 @@
         <v>139</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.144578313253012</v>
+        <v>0.08635097493036212</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1453,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>213</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1461,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2371134020618557</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1479,31 +1485,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.08512020792722547</v>
+        <v>0.07754010695187166</v>
       </c>
       <c r="L20">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1408</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1511,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.19</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1529,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.04527296937416778</v>
+        <v>0.06957087126137841</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="N21">
         <v>0.97</v>
@@ -1553,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>717</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1561,25 +1567,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1835443037974684</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>258</v>
+        <v>288</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22">
+        <v>0.04394141145139813</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>0.97</v>
+      </c>
+      <c r="O22">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1587,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1739130434782609</v>
+        <v>0.1646884272997033</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1605,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>228</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1613,13 +1643,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.172106824925816</v>
+        <v>0.1613924050632911</v>
       </c>
       <c r="C24">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1631,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>558</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1639,13 +1669,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1436781609195402</v>
+        <v>0.1613924050632911</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1657,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>298</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1665,13 +1695,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1329113924050633</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1683,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>274</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1691,13 +1721,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.118942731277533</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1709,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1717,25 +1747,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1123595505617977</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>30</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1743,13 +1773,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.05766062602965404</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0.03</v>
@@ -1761,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>572</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1769,25 +1799,51 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04689480354879594</v>
+        <v>0.05950413223140496</v>
       </c>
       <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>0.08</v>
+      </c>
+      <c r="F30">
+        <v>0.92</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.04695431472081218</v>
+      </c>
+      <c r="C31">
         <v>37</v>
       </c>
-      <c r="D30">
-        <v>42</v>
-      </c>
-      <c r="E30">
-        <v>0.12</v>
-      </c>
-      <c r="F30">
-        <v>0.88</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>752</v>
+      <c r="D31">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>0.14</v>
+      </c>
+      <c r="F31">
+        <v>0.86</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
